--- a/槽边往事公众号.xlsx
+++ b/槽边往事公众号.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XINSHEN\Documents\MyRepo\E-Book\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49EAE77-E775-4ED8-B8A5-468E6E5C469B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986E8AB9-D258-4046-9677-D46DA3B6FAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1005" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1EFB0D10-9545-4C5C-9CBF-ACD8EBB9D4C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{1EFB0D10-9545-4C5C-9CBF-ACD8EBB9D4C7}"/>
   </bookViews>
   <sheets>
     <sheet name="2014" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>月份</t>
   </si>
@@ -72,6 +72,36 @@
   </si>
   <si>
     <t>背景音乐</t>
+  </si>
+  <si>
+    <t>2023年04月07日 11:04</t>
+  </si>
+  <si>
+    <t>疗愈心灵从这里开始---《观呼吸》</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/BCzoVjOD8eCBKEonLFKvPQ</t>
+  </si>
+  <si>
+    <t>观呼吸</t>
+  </si>
+  <si>
+    <t>2023年03月24日 10:10</t>
+  </si>
+  <si>
+    <t>推荐一部治疗精神内耗的纪录片</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/cwUezm48_frkysweZ1o1Ng</t>
+  </si>
+  <si>
+    <t>2022年07月05日 10:10</t>
+  </si>
+  <si>
+    <t>一起来修行</t>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/vtk1Hde7vWVlO7S1ZGqaLg</t>
   </si>
 </sst>
 </file>
@@ -153,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -299,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -441,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -452,7 +482,7 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,29 +511,60 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27A5DAF-642B-4209-A0DF-313C40711C72}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -579,8 +640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05F00BD-9BBE-42A5-817D-7C9835F06D88}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +822,18 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C18E1558-9743-4F53-99BF-BEECDFB23794}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -786,6 +852,17 @@
         <v>4</v>
       </c>
     </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
